--- a/contratos/contratos-2-2017.xlsx
+++ b/contratos/contratos-2-2017.xlsx
@@ -781,7 +781,7 @@
     <t>A. ROPELATO S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ANALITICA S.A.</t>
@@ -847,7 +847,7 @@
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -1000,7 +1000,7 @@
     <t>METALURGICA EL TIGRE S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1480,586 +1480,586 @@
     <t>14</t>
   </si>
   <si>
-    <t>4.465,00</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>3.430,00</t>
-  </si>
-  <si>
-    <t>23.580,00</t>
-  </si>
-  <si>
-    <t>1.062.000,00</t>
-  </si>
-  <si>
-    <t>86.000,00</t>
-  </si>
-  <si>
-    <t>1.640,00</t>
-  </si>
-  <si>
-    <t>9.980,00</t>
-  </si>
-  <si>
-    <t>987,36</t>
-  </si>
-  <si>
-    <t>70.567,20</t>
-  </si>
-  <si>
-    <t>7.000,55</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>566.000,00</t>
-  </si>
-  <si>
-    <t>138.478,00</t>
-  </si>
-  <si>
-    <t>179.641,44</t>
-  </si>
-  <si>
-    <t>11.708,50</t>
-  </si>
-  <si>
-    <t>32.520,00</t>
-  </si>
-  <si>
-    <t>76.545,00</t>
-  </si>
-  <si>
-    <t>30.513,77</t>
-  </si>
-  <si>
-    <t>10.759,00</t>
-  </si>
-  <si>
-    <t>3.375,00</t>
-  </si>
-  <si>
-    <t>24.777,57</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>712,00</t>
-  </si>
-  <si>
-    <t>21.218,00</t>
-  </si>
-  <si>
-    <t>5.350,00</t>
-  </si>
-  <si>
-    <t>1.102,00</t>
-  </si>
-  <si>
-    <t>20.758,84</t>
-  </si>
-  <si>
-    <t>2.106,16</t>
-  </si>
-  <si>
-    <t>60.170,48</t>
-  </si>
-  <si>
-    <t>156,82</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>67.880,00</t>
-  </si>
-  <si>
-    <t>33.743,00</t>
-  </si>
-  <si>
-    <t>9.344,00</t>
-  </si>
-  <si>
-    <t>23,50</t>
-  </si>
-  <si>
-    <t>2.760,00</t>
-  </si>
-  <si>
-    <t>5.767,53</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>14.995,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>3.921,23</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>40.600,00</t>
-  </si>
-  <si>
-    <t>21.482,62</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>841,15</t>
-  </si>
-  <si>
-    <t>2.752,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>1.917,28</t>
-  </si>
-  <si>
-    <t>270,48</t>
-  </si>
-  <si>
-    <t>2.329,20</t>
-  </si>
-  <si>
-    <t>37,80</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>771,09</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>2.867,54</t>
-  </si>
-  <si>
-    <t>7.517,36</t>
-  </si>
-  <si>
-    <t>16.465,60</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>18.720,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>2.266,00</t>
-  </si>
-  <si>
-    <t>125,29</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>4.424,00</t>
-  </si>
-  <si>
-    <t>1.693,80</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>92.719,55</t>
-  </si>
-  <si>
-    <t>17.160,00</t>
-  </si>
-  <si>
-    <t>6.388,00</t>
-  </si>
-  <si>
-    <t>6.657,05</t>
-  </si>
-  <si>
-    <t>2.229,00</t>
-  </si>
-  <si>
-    <t>5.690,00</t>
-  </si>
-  <si>
-    <t>63.879,00</t>
-  </si>
-  <si>
-    <t>2.165,00</t>
-  </si>
-  <si>
-    <t>794,10</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>236,48</t>
-  </si>
-  <si>
-    <t>385.938,00</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>36.410,38</t>
-  </si>
-  <si>
-    <t>1.837,43</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>1.634,00</t>
-  </si>
-  <si>
-    <t>32.940,83</t>
-  </si>
-  <si>
-    <t>517,00</t>
-  </si>
-  <si>
-    <t>4.055,30</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>94,50</t>
-  </si>
-  <si>
-    <t>1.001,40</t>
-  </si>
-  <si>
-    <t>3.976,00</t>
-  </si>
-  <si>
-    <t>6.346,48</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>766,00</t>
-  </si>
-  <si>
-    <t>8.880,00</t>
-  </si>
-  <si>
-    <t>1.668,00</t>
-  </si>
-  <si>
-    <t>465,12</t>
-  </si>
-  <si>
-    <t>26.900,07</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>5.399,42</t>
-  </si>
-  <si>
-    <t>9.040,69</t>
-  </si>
-  <si>
-    <t>1.047,96</t>
-  </si>
-  <si>
-    <t>1.133,15</t>
-  </si>
-  <si>
-    <t>340,95</t>
-  </si>
-  <si>
-    <t>14.600,00</t>
-  </si>
-  <si>
-    <t>232,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>10.700,00</t>
-  </si>
-  <si>
-    <t>132,77</t>
-  </si>
-  <si>
-    <t>315,07</t>
-  </si>
-  <si>
-    <t>1.894,68</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>12.097,00</t>
-  </si>
-  <si>
-    <t>1.360,00</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>92.287,00</t>
-  </si>
-  <si>
-    <t>93.900,00</t>
-  </si>
-  <si>
-    <t>144.600,00</t>
-  </si>
-  <si>
-    <t>36.450,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>246.258,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>39,04</t>
-  </si>
-  <si>
-    <t>830,13</t>
-  </si>
-  <si>
-    <t>1.425,00</t>
-  </si>
-  <si>
-    <t>1.811,00</t>
-  </si>
-  <si>
-    <t>1.723,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.204,50</t>
-  </si>
-  <si>
-    <t>79.223,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>21.484,00</t>
-  </si>
-  <si>
-    <t>23.480,00</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>4.391,46</t>
-  </si>
-  <si>
-    <t>5.810,00</t>
-  </si>
-  <si>
-    <t>6.538,20</t>
-  </si>
-  <si>
-    <t>7.330,00</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>10.080,00</t>
-  </si>
-  <si>
-    <t>3.920,40</t>
-  </si>
-  <si>
-    <t>9.570,00</t>
-  </si>
-  <si>
-    <t>12.088,00</t>
-  </si>
-  <si>
-    <t>6.224,25</t>
-  </si>
-  <si>
-    <t>6.504,25</t>
-  </si>
-  <si>
-    <t>13.985,00</t>
-  </si>
-  <si>
-    <t>61.733,70</t>
-  </si>
-  <si>
-    <t>985,00</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>1.740,00</t>
-  </si>
-  <si>
-    <t>45.470,00</t>
-  </si>
-  <si>
-    <t>5.568,00</t>
-  </si>
-  <si>
-    <t>14.175,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>39.631,98</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>85.200,00</t>
-  </si>
-  <si>
-    <t>21.780,00</t>
-  </si>
-  <si>
-    <t>4.850,00</t>
-  </si>
-  <si>
-    <t>121.190,00</t>
-  </si>
-  <si>
-    <t>122.190,00</t>
-  </si>
-  <si>
-    <t>116.190,00</t>
-  </si>
-  <si>
-    <t>126.190,00</t>
-  </si>
-  <si>
-    <t>200.190,00</t>
-  </si>
-  <si>
-    <t>284.190,00</t>
-  </si>
-  <si>
-    <t>184.190,00</t>
-  </si>
-  <si>
-    <t>122.890,00</t>
-  </si>
-  <si>
-    <t>39.700,00</t>
-  </si>
-  <si>
-    <t>9.663,24</t>
-  </si>
-  <si>
-    <t>2.396,00</t>
-  </si>
-  <si>
-    <t>104.214,70</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>6.650,00</t>
-  </si>
-  <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>18.232,50</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
+    <t>4465.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>3430.00</t>
+  </si>
+  <si>
+    <t>23580.00</t>
+  </si>
+  <si>
+    <t>1062000.00</t>
+  </si>
+  <si>
+    <t>86000.00</t>
+  </si>
+  <si>
+    <t>1640.00</t>
+  </si>
+  <si>
+    <t>9980.00</t>
+  </si>
+  <si>
+    <t>987.36</t>
+  </si>
+  <si>
+    <t>70567.20</t>
+  </si>
+  <si>
+    <t>7000.55</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>566000.00</t>
+  </si>
+  <si>
+    <t>138478.00</t>
+  </si>
+  <si>
+    <t>179641.44</t>
+  </si>
+  <si>
+    <t>11708.50</t>
+  </si>
+  <si>
+    <t>32520.00</t>
+  </si>
+  <si>
+    <t>76545.00</t>
+  </si>
+  <si>
+    <t>30513.77</t>
+  </si>
+  <si>
+    <t>10759.00</t>
+  </si>
+  <si>
+    <t>3375.00</t>
+  </si>
+  <si>
+    <t>24777.57</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>712.00</t>
+  </si>
+  <si>
+    <t>21218.00</t>
+  </si>
+  <si>
+    <t>5350.00</t>
+  </si>
+  <si>
+    <t>1102.00</t>
+  </si>
+  <si>
+    <t>20758.84</t>
+  </si>
+  <si>
+    <t>2106.16</t>
+  </si>
+  <si>
+    <t>60170.48</t>
+  </si>
+  <si>
+    <t>156.82</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>67880.00</t>
+  </si>
+  <si>
+    <t>33743.00</t>
+  </si>
+  <si>
+    <t>9344.00</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>2760.00</t>
+  </si>
+  <si>
+    <t>5767.53</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>14995.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>3921.23</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>40600.00</t>
+  </si>
+  <si>
+    <t>21482.62</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>841.15</t>
+  </si>
+  <si>
+    <t>2752.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>1917.28</t>
+  </si>
+  <si>
+    <t>270.48</t>
+  </si>
+  <si>
+    <t>2329.20</t>
+  </si>
+  <si>
+    <t>37.80</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>771.09</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>2867.54</t>
+  </si>
+  <si>
+    <t>7517.36</t>
+  </si>
+  <si>
+    <t>16465.60</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>18720.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>2266.00</t>
+  </si>
+  <si>
+    <t>125.29</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>4424.00</t>
+  </si>
+  <si>
+    <t>1693.80</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>92719.55</t>
+  </si>
+  <si>
+    <t>17160.00</t>
+  </si>
+  <si>
+    <t>6388.00</t>
+  </si>
+  <si>
+    <t>6657.05</t>
+  </si>
+  <si>
+    <t>2229.00</t>
+  </si>
+  <si>
+    <t>5690.00</t>
+  </si>
+  <si>
+    <t>63879.00</t>
+  </si>
+  <si>
+    <t>2165.00</t>
+  </si>
+  <si>
+    <t>794.10</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>236.48</t>
+  </si>
+  <si>
+    <t>385938.00</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>36410.38</t>
+  </si>
+  <si>
+    <t>1837.43</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>1634.00</t>
+  </si>
+  <si>
+    <t>32940.83</t>
+  </si>
+  <si>
+    <t>517.00</t>
+  </si>
+  <si>
+    <t>4055.30</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>1001.40</t>
+  </si>
+  <si>
+    <t>3976.00</t>
+  </si>
+  <si>
+    <t>6346.48</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>766.00</t>
+  </si>
+  <si>
+    <t>8880.00</t>
+  </si>
+  <si>
+    <t>1668.00</t>
+  </si>
+  <si>
+    <t>465.12</t>
+  </si>
+  <si>
+    <t>26900.07</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>5399.42</t>
+  </si>
+  <si>
+    <t>9040.69</t>
+  </si>
+  <si>
+    <t>1047.96</t>
+  </si>
+  <si>
+    <t>1133.15</t>
+  </si>
+  <si>
+    <t>340.95</t>
+  </si>
+  <si>
+    <t>14600.00</t>
+  </si>
+  <si>
+    <t>232.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>10700.00</t>
+  </si>
+  <si>
+    <t>132.77</t>
+  </si>
+  <si>
+    <t>315.07</t>
+  </si>
+  <si>
+    <t>1894.68</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>12097.00</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>92287.00</t>
+  </si>
+  <si>
+    <t>93900.00</t>
+  </si>
+  <si>
+    <t>144600.00</t>
+  </si>
+  <si>
+    <t>36450.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>246258.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>39.04</t>
+  </si>
+  <si>
+    <t>830.13</t>
+  </si>
+  <si>
+    <t>1425.00</t>
+  </si>
+  <si>
+    <t>1811.00</t>
+  </si>
+  <si>
+    <t>1723.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3204.50</t>
+  </si>
+  <si>
+    <t>79223.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>21484.00</t>
+  </si>
+  <si>
+    <t>23480.00</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>4391.46</t>
+  </si>
+  <si>
+    <t>5810.00</t>
+  </si>
+  <si>
+    <t>6538.20</t>
+  </si>
+  <si>
+    <t>7330.00</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>10080.00</t>
+  </si>
+  <si>
+    <t>3920.40</t>
+  </si>
+  <si>
+    <t>9570.00</t>
+  </si>
+  <si>
+    <t>12088.00</t>
+  </si>
+  <si>
+    <t>6224.25</t>
+  </si>
+  <si>
+    <t>6504.25</t>
+  </si>
+  <si>
+    <t>13985.00</t>
+  </si>
+  <si>
+    <t>61733.70</t>
+  </si>
+  <si>
+    <t>985.00</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>1740.00</t>
+  </si>
+  <si>
+    <t>45470.00</t>
+  </si>
+  <si>
+    <t>5568.00</t>
+  </si>
+  <si>
+    <t>14175.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>39631.98</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>85200.00</t>
+  </si>
+  <si>
+    <t>21780.00</t>
+  </si>
+  <si>
+    <t>4850.00</t>
+  </si>
+  <si>
+    <t>121190.00</t>
+  </si>
+  <si>
+    <t>122190.00</t>
+  </si>
+  <si>
+    <t>116190.00</t>
+  </si>
+  <si>
+    <t>126190.00</t>
+  </si>
+  <si>
+    <t>200190.00</t>
+  </si>
+  <si>
+    <t>284190.00</t>
+  </si>
+  <si>
+    <t>184190.00</t>
+  </si>
+  <si>
+    <t>122890.00</t>
+  </si>
+  <si>
+    <t>39700.00</t>
+  </si>
+  <si>
+    <t>9663.24</t>
+  </si>
+  <si>
+    <t>2396.00</t>
+  </si>
+  <si>
+    <t>104214.70</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>6650.00</t>
+  </si>
+  <si>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>18232.50</t>
+  </si>
+  <si>
+    <t>7500.00</t>
   </si>
 </sst>
 </file>
